--- a/lin_R1_by_R2 (1 by 2)100.xlsx
+++ b/lin_R1_by_R2 (1 by 2)100.xlsx
@@ -224,6 +224,86 @@
         <v>-0.07861962697032966</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>255.73511462376163</v>
+      </c>
+      <c r="B3" t="n">
+        <v>321.95143448794767</v>
+      </c>
+      <c r="C3" t="n">
+        <v>405.3128422404624</v>
+      </c>
+      <c r="D3" t="n">
+        <v>510.2586368230384</v>
+      </c>
+      <c r="E3" t="n">
+        <v>642.377564483974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>808.7054398953212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1018.0998289404004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1281.7117463963648</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1613.5794881334648</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2031.3762215610436</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2557.3511462376164</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3219.5143448794765</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4053.1284224046235</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5102.586368230384</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6423.77564483974</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8087.054398953212</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10180.998289404004</v>
+      </c>
+      <c r="R3" t="n">
+        <v>12817.117463963647</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16135.794881334647</v>
+      </c>
+      <c r="T3" t="n">
+        <v>20313.762215610437</v>
+      </c>
+      <c r="U3" t="n">
+        <v>25573.511462376162</v>
+      </c>
+      <c r="V3" t="n">
+        <v>32195.143448794766</v>
+      </c>
+      <c r="W3" t="n">
+        <v>40531.284224046234</v>
+      </c>
+      <c r="X3" t="n">
+        <v>51025.86368230384</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>64237.756448397406</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>80870.54398953212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -397,6 +477,86 @@
         <v>-0.0786695882997407</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>255.73511462376163</v>
+      </c>
+      <c r="B3" t="n">
+        <v>321.95143448794767</v>
+      </c>
+      <c r="C3" t="n">
+        <v>405.3128422404624</v>
+      </c>
+      <c r="D3" t="n">
+        <v>510.2586368230384</v>
+      </c>
+      <c r="E3" t="n">
+        <v>642.377564483974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>808.7054398953212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1018.0998289404004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1281.7117463963648</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1613.5794881334648</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2031.3762215610436</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2557.3511462376164</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3219.5143448794765</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4053.1284224046235</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5102.586368230384</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6423.77564483974</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8087.054398953212</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10180.998289404004</v>
+      </c>
+      <c r="R3" t="n">
+        <v>12817.117463963647</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16135.794881334647</v>
+      </c>
+      <c r="T3" t="n">
+        <v>20313.762215610437</v>
+      </c>
+      <c r="U3" t="n">
+        <v>25573.511462376162</v>
+      </c>
+      <c r="V3" t="n">
+        <v>32195.143448794766</v>
+      </c>
+      <c r="W3" t="n">
+        <v>40531.284224046234</v>
+      </c>
+      <c r="X3" t="n">
+        <v>51025.86368230384</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>64237.756448397406</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>80870.54398953212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -570,6 +730,86 @@
         <v>-0.07867676319662475</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>255.73511462376163</v>
+      </c>
+      <c r="B3" t="n">
+        <v>321.95143448794767</v>
+      </c>
+      <c r="C3" t="n">
+        <v>405.3128422404624</v>
+      </c>
+      <c r="D3" t="n">
+        <v>510.2586368230384</v>
+      </c>
+      <c r="E3" t="n">
+        <v>642.377564483974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>808.7054398953212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1018.0998289404004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1281.7117463963648</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1613.5794881334648</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2031.3762215610436</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2557.3511462376164</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3219.5143448794765</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4053.1284224046235</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5102.586368230384</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6423.77564483974</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8087.054398953212</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10180.998289404004</v>
+      </c>
+      <c r="R3" t="n">
+        <v>12817.117463963647</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16135.794881334647</v>
+      </c>
+      <c r="T3" t="n">
+        <v>20313.762215610437</v>
+      </c>
+      <c r="U3" t="n">
+        <v>25573.511462376162</v>
+      </c>
+      <c r="V3" t="n">
+        <v>32195.143448794766</v>
+      </c>
+      <c r="W3" t="n">
+        <v>40531.284224046234</v>
+      </c>
+      <c r="X3" t="n">
+        <v>51025.86368230384</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>64237.756448397406</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>80870.54398953212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -743,6 +983,86 @@
         <v>-0.07861932441007799</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>255.73511462376163</v>
+      </c>
+      <c r="B3" t="n">
+        <v>321.95143448794767</v>
+      </c>
+      <c r="C3" t="n">
+        <v>405.3128422404624</v>
+      </c>
+      <c r="D3" t="n">
+        <v>510.2586368230384</v>
+      </c>
+      <c r="E3" t="n">
+        <v>642.377564483974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>808.7054398953212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1018.0998289404004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1281.7117463963648</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1613.5794881334648</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2031.3762215610436</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2557.3511462376164</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3219.5143448794765</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4053.1284224046235</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5102.586368230384</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6423.77564483974</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8087.054398953212</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10180.998289404004</v>
+      </c>
+      <c r="R3" t="n">
+        <v>12817.117463963647</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16135.794881334647</v>
+      </c>
+      <c r="T3" t="n">
+        <v>20313.762215610437</v>
+      </c>
+      <c r="U3" t="n">
+        <v>25573.511462376162</v>
+      </c>
+      <c r="V3" t="n">
+        <v>32195.143448794766</v>
+      </c>
+      <c r="W3" t="n">
+        <v>40531.284224046234</v>
+      </c>
+      <c r="X3" t="n">
+        <v>51025.86368230384</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>64237.756448397406</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>80870.54398953212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (1 by 2)100.xlsx
+++ b/lin_R1_by_R2 (1 by 2)100.xlsx
@@ -66,73 +66,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.8199638835474065</v>
+        <v>0.7819792576009394</v>
       </c>
       <c r="B1" t="n">
-        <v>0.8124522598591061</v>
+        <v>0.7562952210117349</v>
       </c>
       <c r="C1" t="n">
-        <v>0.8009840710030738</v>
+        <v>0.7207558857001016</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7838279055401696</v>
+        <v>0.6744707768627576</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7589258080900643</v>
+        <v>0.6186500801532839</v>
       </c>
       <c r="F1" t="n">
-        <v>0.7243117884701514</v>
+        <v>0.5570622936581614</v>
       </c>
       <c r="G1" t="n">
-        <v>0.6789603407295826</v>
+        <v>0.49505741717045193</v>
       </c>
       <c r="H1" t="n">
-        <v>0.6238624441422866</v>
+        <v>0.43744794955140204</v>
       </c>
       <c r="I1" t="n">
-        <v>0.5625772121328053</v>
+        <v>0.3867779752050871</v>
       </c>
       <c r="J1" t="n">
-        <v>0.5003925143385964</v>
+        <v>0.3431575230899223</v>
       </c>
       <c r="K1" t="n">
-        <v>0.4422551831227108</v>
+        <v>0.30535569564519127</v>
       </c>
       <c r="L1" t="n">
-        <v>0.3909404049887559</v>
+        <v>0.27203783159804223</v>
       </c>
       <c r="M1" t="n">
-        <v>0.34673947862187626</v>
+        <v>0.24235841960154153</v>
       </c>
       <c r="N1" t="n">
-        <v>0.3084843653056501</v>
+        <v>0.21588322858005501</v>
       </c>
       <c r="O1" t="n">
-        <v>0.2748139965626865</v>
+        <v>0.1923062162461198</v>
       </c>
       <c r="P1" t="n">
-        <v>0.24483582080391086</v>
+        <v>0.17132205480578447</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.21809140220828066</v>
+        <v>0.15263981949362665</v>
       </c>
       <c r="R1" t="n">
-        <v>0.19427163648371168</v>
+        <v>0.13600285247167448</v>
       </c>
       <c r="S1" t="n">
-        <v>0.1730715180149151</v>
+        <v>0.12118526221236332</v>
       </c>
       <c r="T1" t="n">
-        <v>0.15419760233967078</v>
+        <v>0.10798654153603716</v>
       </c>
       <c r="U1" t="n">
-        <v>0.1373901892432878</v>
+        <v>0.09622863738434688</v>
       </c>
       <c r="V1" t="n">
-        <v>0.12242095288070637</v>
+        <v>0.08575338759010778</v>
       </c>
       <c r="W1" t="n">
-        <v>0.10908728417009482</v>
+        <v>0.07642021908002182</v>
       </c>
       <c r="X1" t="n">
         <v>0.0972092600285685</v>
@@ -146,73 +146,73 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.9706679058995364</v>
+        <v>-1.090891692775403</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.6045578886862404</v>
+        <v>-0.9331693042430746</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.322191105609142</v>
+        <v>-0.8152231912488861</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.1070738163115907</v>
+        <v>-0.7253618296408346</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.9452728442441278</v>
+        <v>-0.6528135775477827</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.8243055299117326</v>
+        <v>-0.5889550900952163</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.7324252468332719</v>
+        <v>-0.5287584538701504</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.6587426733226491</v>
+        <v>-0.47104272481230813</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.594380811785421</v>
+        <v>-0.4170260675057098</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.5339595452709599</v>
+        <v>-0.3682619612938852</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.4759967181521835</v>
+        <v>-0.32536024559077226</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.4215847124242692</v>
+        <v>-0.28791084935933353</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.3723167271220302</v>
+        <v>-0.25508014917494337</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.328904310377547</v>
+        <v>-0.22613344174481367</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.2910072932437148</v>
+        <v>-0.2005552855228553</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.2578032081195247</v>
+        <v>-0.17794691557998324</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2285381861723364</v>
+        <v>-0.15795441531693796</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.20268064489978674</v>
+        <v>-0.14026266881383828</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.17982575930807948</v>
+        <v>-0.12459670893552095</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.15961640724513343</v>
+        <v>-0.11071641791162488</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.14173386530028426</v>
+        <v>-0.09841153789969755</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.12589981285085924</v>
+        <v>-0.08749775759735223</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.11187129077725157</v>
+        <v>-0.077813319926203</v>
       </c>
       <c r="X2" t="n">
         <v>-0.09943558053212467</v>
@@ -226,73 +226,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>255.73511462376163</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>321.95143448794767</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>405.3128422404624</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>510.2586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>642.377564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>808.7054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>1018.0998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>1281.7117463963648</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>1613.5794881334648</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>2031.3762215610436</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>2557.3511462376164</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>3219.5143448794765</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>4053.1284224046235</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>5102.586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>6423.77564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>8087.054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>10180.998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>12817.117463963647</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>16135.794881334647</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>20313.762215610437</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>25573.511462376162</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>32195.143448794766</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>40531.284224046234</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -319,73 +319,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.8314583592044285</v>
+        <v>0.8141861823748753</v>
       </c>
       <c r="B1" t="n">
-        <v>0.829329310332927</v>
+        <v>0.7951018085527971</v>
       </c>
       <c r="C1" t="n">
-        <v>0.8247647333643119</v>
+        <v>0.7621308180565672</v>
       </c>
       <c r="D1" t="n">
-        <v>0.8153622934789321</v>
+        <v>0.7119865751693542</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7972689898753806</v>
+        <v>0.646072273927998</v>
       </c>
       <c r="F1" t="n">
-        <v>0.7656961926577797</v>
+        <v>0.5714891203296811</v>
       </c>
       <c r="G1" t="n">
-        <v>0.717092837796864</v>
+        <v>0.4979402513330424</v>
       </c>
       <c r="H1" t="n">
-        <v>0.6523534547617059</v>
+        <v>0.43298858437077464</v>
       </c>
       <c r="I1" t="n">
-        <v>0.578146782989492</v>
+        <v>0.3795644347439965</v>
       </c>
       <c r="J1" t="n">
-        <v>0.5041448980103846</v>
+        <v>0.3365704963148903</v>
       </c>
       <c r="K1" t="n">
-        <v>0.43824901486422885</v>
+        <v>0.30094609263117267</v>
       </c>
       <c r="L1" t="n">
-        <v>0.3838091499241564</v>
+        <v>0.26970235531954606</v>
       </c>
       <c r="M1" t="n">
-        <v>0.34000751178541816</v>
+        <v>0.2411852306679103</v>
       </c>
       <c r="N1" t="n">
-        <v>0.3038676295496546</v>
+        <v>0.21511404497329575</v>
       </c>
       <c r="O1" t="n">
-        <v>0.27232848509632557</v>
+        <v>0.19168356135026138</v>
       </c>
       <c r="P1" t="n">
-        <v>0.24359786426052446</v>
+        <v>0.17084289006039882</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.21730351092707084</v>
+        <v>0.15229798725374405</v>
       </c>
       <c r="R1" t="n">
-        <v>0.19363742629273623</v>
+        <v>0.1357603572804802</v>
       </c>
       <c r="S1" t="n">
-        <v>0.17257920573982496</v>
+        <v>0.12101140710489869</v>
       </c>
       <c r="T1" t="n">
-        <v>0.1538451027631322</v>
+        <v>0.10786204305952594</v>
       </c>
       <c r="U1" t="n">
-        <v>0.13714041176968597</v>
+        <v>0.09613963787854739</v>
       </c>
       <c r="V1" t="n">
-        <v>0.12224194161354052</v>
+        <v>0.0856898132997229</v>
       </c>
       <c r="W1" t="n">
-        <v>0.10895906131683047</v>
+        <v>0.07637484444565851</v>
       </c>
       <c r="X1" t="n">
         <v>0.09711759092557867</v>
@@ -399,73 +399,73 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.9535524297089688</v>
+        <v>-1.0766123525438351</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.5860107067983114</v>
+        <v>-0.9268561002466408</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.3039893994965925</v>
+        <v>-0.8206270389490861</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.0923030824369215</v>
+        <v>-0.7434418178879558</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.9380866822468593</v>
+        <v>-0.6802427189997781</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.8285833591659004</v>
+        <v>-0.619315457901327</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.7494606660272568</v>
+        <v>-0.5557399472222221</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.6855818841784068</v>
+        <v>-0.49096627116113156</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6247611413838462</v>
+        <v>-0.42930645762731073</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.5614331472553007</v>
+        <v>-0.3745025326829529</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.4966054980830987</v>
+        <v>-0.3280640113475906</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.43449620863728433</v>
+        <v>-0.289256179311925</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.37899213319541863</v>
+        <v>-0.25617650281753285</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.3318197267936245</v>
+        <v>-0.2271431496230827</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.2924102691950824</v>
+        <v>-0.20134392190959474</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.2589053364317511</v>
+        <v>-0.17849379902315016</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.22956096300249237</v>
+        <v>-0.15833292729274442</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.2034919321099444</v>
+        <v>-0.14053189795545507</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.18039133555115014</v>
+        <v>-0.12478837687046808</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.16000681822608712</v>
+        <v>-0.11085237348766183</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.14201119423629724</v>
+        <v>-0.0985079669344185</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.12609734108423665</v>
+        <v>-0.08756613489823363</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.11201141829670562</v>
+        <v>-0.07786179137102427</v>
       </c>
       <c r="X2" t="n">
         <v>-0.09953496820660486</v>
@@ -479,73 +479,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>255.73511462376163</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>321.95143448794767</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>405.3128422404624</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>510.2586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>642.377564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>808.7054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>1018.0998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>1281.7117463963648</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>1613.5794881334648</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>2031.3762215610436</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>2557.3511462376164</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>3219.5143448794765</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>4053.1284224046235</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>5102.586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>6423.77564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>8087.054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>10180.998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>12817.117463963647</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>16135.794881334647</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>20313.762215610437</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>25573.511462376162</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>32195.143448794766</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>40531.284224046234</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -572,73 +572,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.894438584377438</v>
+        <v>0.8569896388678502</v>
       </c>
       <c r="B1" t="n">
-        <v>0.8891635996781722</v>
+        <v>0.8221387780358725</v>
       </c>
       <c r="C1" t="n">
-        <v>0.8787719050689915</v>
+        <v>0.769783668820738</v>
       </c>
       <c r="D1" t="n">
-        <v>0.8593001887047969</v>
+        <v>0.7015134494999292</v>
       </c>
       <c r="E1" t="n">
-        <v>0.8258862100081212</v>
+        <v>0.6242610349090596</v>
       </c>
       <c r="F1" t="n">
-        <v>0.7750914307137268</v>
+        <v>0.5473635804927932</v>
       </c>
       <c r="G1" t="n">
-        <v>0.7080087967940915</v>
+        <v>0.4784775259961555</v>
       </c>
       <c r="H1" t="n">
-        <v>0.6311769584653919</v>
+        <v>0.4211488821486807</v>
       </c>
       <c r="I1" t="n">
-        <v>0.5538924587091524</v>
+        <v>0.37481732083393005</v>
       </c>
       <c r="J1" t="n">
-        <v>0.48409329253020894</v>
+        <v>0.3363906941051911</v>
       </c>
       <c r="K1" t="n">
-        <v>0.4257189100275777</v>
+        <v>0.3023576727297159</v>
       </c>
       <c r="L1" t="n">
-        <v>0.3785214212558212</v>
+        <v>0.2706668090995537</v>
       </c>
       <c r="M1" t="n">
-        <v>0.3395492132349649</v>
+        <v>0.24125713176678082</v>
       </c>
       <c r="N1" t="n">
-        <v>0.30524267159416607</v>
+        <v>0.21481865368336028</v>
       </c>
       <c r="O1" t="n">
-        <v>0.27337248374133843</v>
+        <v>0.19146739642267768</v>
       </c>
       <c r="P1" t="n">
-        <v>0.24373304093112638</v>
+        <v>0.17075140376038667</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.21701634966285954</v>
+        <v>0.15224610690347626</v>
       </c>
       <c r="R1" t="n">
-        <v>0.19340791031645002</v>
+        <v>0.13571901334444667</v>
       </c>
       <c r="S1" t="n">
-        <v>0.17248043257976733</v>
+        <v>0.12098160023767804</v>
       </c>
       <c r="T1" t="n">
-        <v>0.1537918407181833</v>
+        <v>0.10784134989138663</v>
       </c>
       <c r="U1" t="n">
-        <v>0.1370981303849102</v>
+        <v>0.09612506180760035</v>
       </c>
       <c r="V1" t="n">
-        <v>0.12221115807464347</v>
+        <v>0.08567954514050045</v>
       </c>
       <c r="W1" t="n">
-        <v>0.10893770999051017</v>
+        <v>0.07636760914539403</v>
       </c>
       <c r="X1" t="n">
         <v>0.09710255982919729</v>
@@ -652,73 +652,73 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.979708058696082</v>
+        <v>-1.1282557358210037</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.6193922850795683</v>
+        <v>-0.9846000733018022</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.345991198599923</v>
+        <v>-0.8778503752354653</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.1432249195796347</v>
+        <v>-0.7914007771122683</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.9955049681130951</v>
+        <v>-0.7124388810483396</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.8861988796086153</v>
+        <v>-0.6347766876597456</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.7985602044231904</v>
+        <v>-0.5584620462498242</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.7192915996872035</v>
+        <v>-0.48691425096142604</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6415881639552936</v>
+        <v>-0.42373745574564836</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.5650427796804737</v>
+        <v>-0.3706457888865853</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.49291522079947414</v>
+        <v>-0.3268158779393491</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.4288972249295135</v>
+        <v>-0.2897031364963564</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.3749158747693843</v>
+        <v>-0.2569275027259695</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.33035993256306284</v>
+        <v>-0.2275264339308929</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.2927678338336996</v>
+        <v>-0.201447088671447</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.2596709471739538</v>
+        <v>-0.1785420324691458</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2299799710661824</v>
+        <v>-0.15838531614440915</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.20360891339515552</v>
+        <v>-0.14057279339523904</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.18043971691421784</v>
+        <v>-0.12481608069669904</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.16005940516939485</v>
+        <v>-0.11087192725208347</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.14205344097851774</v>
+        <v>-0.0985218547226292</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.1261259705790246</v>
+        <v>-0.08757596459871375</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.1120315631115371</v>
+        <v>-0.07786875167157847</v>
       </c>
       <c r="X2" t="n">
         <v>-0.0995492842445911</v>
@@ -732,73 +732,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>255.73511462376163</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>321.95143448794767</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>405.3128422404624</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>510.2586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>642.377564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>808.7054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>1018.0998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>1281.7117463963648</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>1613.5794881334648</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>2031.3762215610436</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>2557.3511462376164</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>3219.5143448794765</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>4053.1284224046235</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>5102.586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>6423.77564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>8087.054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>10180.998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>12817.117463963647</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>16135.794881334647</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>20313.762215610437</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>25573.511462376162</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>32195.143448794766</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>40531.284224046234</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -825,73 +825,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.8213868914234085</v>
+        <v>0.7798685476128127</v>
       </c>
       <c r="B1" t="n">
-        <v>0.8137401948341696</v>
+        <v>0.7507144508916725</v>
       </c>
       <c r="C1" t="n">
-        <v>0.8013299118056945</v>
+        <v>0.7116393966924999</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7819755286426315</v>
+        <v>0.6633250498405631</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7536750182167786</v>
+        <v>0.6079022888528347</v>
       </c>
       <c r="F1" t="n">
-        <v>0.7154675317867685</v>
+        <v>0.5488265114124542</v>
       </c>
       <c r="G1" t="n">
-        <v>0.6679005995490549</v>
+        <v>0.49036921486564694</v>
       </c>
       <c r="H1" t="n">
-        <v>0.6129825007821729</v>
+        <v>0.4362721742275695</v>
       </c>
       <c r="I1" t="n">
-        <v>0.5540614611657028</v>
+        <v>0.3883171458896851</v>
       </c>
       <c r="J1" t="n">
-        <v>0.49538024074161185</v>
+        <v>0.3460858228047663</v>
       </c>
       <c r="K1" t="n">
-        <v>0.4407932320397859</v>
+        <v>0.3081832960203531</v>
       </c>
       <c r="L1" t="n">
-        <v>0.39228779228630195</v>
+        <v>0.2738010437161236</v>
       </c>
       <c r="M1" t="n">
-        <v>0.34960709835985937</v>
+        <v>0.24305498073595677</v>
       </c>
       <c r="N1" t="n">
-        <v>0.3113722679890371</v>
+        <v>0.21607267363820487</v>
       </c>
       <c r="O1" t="n">
-        <v>0.2766845083383581</v>
+        <v>0.19241549619153278</v>
       </c>
       <c r="P1" t="n">
-        <v>0.24560647340534944</v>
+        <v>0.17143788875745916</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.21830305042449533</v>
+        <v>0.1527246779696317</v>
       </c>
       <c r="R1" t="n">
-        <v>0.1943805493100197</v>
+        <v>0.13605330340529204</v>
       </c>
       <c r="S1" t="n">
-        <v>0.17318824646738765</v>
+        <v>0.12121678908560082</v>
       </c>
       <c r="T1" t="n">
-        <v>0.1542859878697962</v>
+        <v>0.10800687133601565</v>
       </c>
       <c r="U1" t="n">
-        <v>0.13744299401351778</v>
+        <v>0.09624158102509696</v>
       </c>
       <c r="V1" t="n">
-        <v>0.12245372131749463</v>
+        <v>0.08576162319608645</v>
       </c>
       <c r="W1" t="n">
-        <v>0.10910842721412903</v>
+        <v>0.07642545629928317</v>
       </c>
       <c r="X1" t="n">
         <v>0.09722272962603237</v>
@@ -905,73 +905,73 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.972818423906412</v>
+        <v>-1.0979079993519067</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.6081176886417545</v>
+        <v>-0.9403882497947151</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.3275264655010224</v>
+        <v>-0.8204874727441311</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.113992518068411</v>
+        <v>-0.7267724103608963</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.9525539434912041</v>
+        <v>-0.649850253918014</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.829831257863198</v>
+        <v>-0.5826254348683128</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.7342202658177829</v>
+        <v>-0.5208644880044544</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.6561422909316674</v>
+        <v>-0.4633876355786692</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5882800556570281</v>
+        <v>-0.4110174746892685</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.5261269617925924</v>
+        <v>-0.3646881799094448</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.4682569542537921</v>
+        <v>-0.32411286214167423</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.41538875622104815</v>
+        <v>-0.2880307757579297</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.3685185154960627</v>
+        <v>-0.2554705814114437</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.3274816670947734</v>
+        <v>-0.2262850977816187</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.29105554484427054</v>
+        <v>-0.20052790166624374</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.2582010990872587</v>
+        <v>-0.17790842891017605</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.22871366933239667</v>
+        <v>-0.15794421621898616</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.20266096919757182</v>
+        <v>-0.1402598768449757</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.17978481296413687</v>
+        <v>-0.12459417579937662</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.15960451669742196</v>
+        <v>-0.11071487865610184</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.14173097793212702</v>
+        <v>-0.0984106780007088</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.1258972226842526</v>
+        <v>-0.08749725739452693</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.1118696666602576</v>
+        <v>-0.07781303171467706</v>
       </c>
       <c r="X2" t="n">
         <v>-0.0994346782491814</v>
@@ -985,73 +985,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>255.73511462376163</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>321.95143448794767</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>405.3128422404624</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>510.2586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>642.377564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>808.7054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>1018.0998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>1281.7117463963648</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>1613.5794881334648</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>2031.3762215610436</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>2557.3511462376164</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>3219.5143448794765</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>4053.1284224046235</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>5102.586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>6423.77564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>8087.054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>10180.998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>12817.117463963647</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>16135.794881334647</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>20313.762215610437</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>25573.511462376162</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>32195.143448794766</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>40531.284224046234</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>

--- a/lin_R1_by_R2 (1 by 2)100.xlsx
+++ b/lin_R1_by_R2 (1 by 2)100.xlsx
@@ -226,73 +226,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>520.6987464315688</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>655.5208837720694</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>825.2518985424289</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1038.9305862064455</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1307.936116065505</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1646.5940135182295</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2072.9390465262477</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2609.675642772265</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>3285.3869832262812</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>4136.057160761343</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>5206.987464315687</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>6555.208837720694</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>8252.518985424289</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>10389.305862064455</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>13079.36116065505</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>16465.940135182296</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>20729.390465262477</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>26096.756427722645</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>32853.86983226281</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>41360.57160761343</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>52069.87464315688</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>65552.08837720694</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>82525.18985424288</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -479,73 +479,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>520.6987464315688</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>655.5208837720694</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>825.2518985424289</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1038.9305862064455</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1307.936116065505</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1646.5940135182295</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2072.9390465262477</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2609.675642772265</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>3285.3869832262812</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>4136.057160761343</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>5206.987464315687</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>6555.208837720694</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>8252.518985424289</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>10389.305862064455</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>13079.36116065505</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>16465.940135182296</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>20729.390465262477</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>26096.756427722645</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>32853.86983226281</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>41360.57160761343</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>52069.87464315688</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>65552.08837720694</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>82525.18985424288</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -732,73 +732,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>520.6987464315688</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>655.5208837720694</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>825.2518985424289</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1038.9305862064455</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1307.936116065505</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1646.5940135182295</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2072.9390465262477</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2609.675642772265</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>3285.3869832262812</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>4136.057160761343</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>5206.987464315687</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>6555.208837720694</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>8252.518985424289</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>10389.305862064455</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>13079.36116065505</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>16465.940135182296</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>20729.390465262477</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>26096.756427722645</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>32853.86983226281</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>41360.57160761343</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>52069.87464315688</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>65552.08837720694</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>82525.18985424288</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -985,73 +985,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>520.6987464315688</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>655.5208837720694</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>825.2518985424289</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1038.9305862064455</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1307.936116065505</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1646.5940135182295</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2072.9390465262477</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2609.675642772265</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>3285.3869832262812</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>4136.057160761343</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>5206.987464315687</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>6555.208837720694</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>8252.518985424289</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>10389.305862064455</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>13079.36116065505</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>16465.940135182296</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>20729.390465262477</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>26096.756427722645</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>32853.86983226281</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>41360.57160761343</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>52069.87464315688</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>65552.08837720694</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>82525.18985424288</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>

--- a/lin_R1_by_R2 (1 by 2)100.xlsx
+++ b/lin_R1_by_R2 (1 by 2)100.xlsx
@@ -66,242 +66,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.7819792576009394</v>
+        <v>0.8332853386821001</v>
       </c>
       <c r="B1" t="n">
-        <v>0.7562952210117349</v>
+        <v>0.8332572709698659</v>
       </c>
       <c r="C1" t="n">
-        <v>0.7207558857001016</v>
+        <v>0.8332127927391623</v>
       </c>
       <c r="D1" t="n">
-        <v>0.6744707768627576</v>
+        <v>0.8331423148007233</v>
       </c>
       <c r="E1" t="n">
-        <v>0.6186500801532839</v>
+        <v>0.8330306532276538</v>
       </c>
       <c r="F1" t="n">
-        <v>0.5570622936581614</v>
+        <v>0.8328537780304739</v>
       </c>
       <c r="G1" t="n">
-        <v>0.49505741717045193</v>
+        <v>0.8325736917916805</v>
       </c>
       <c r="H1" t="n">
-        <v>0.43744794955140204</v>
+        <v>0.8321303919890053</v>
       </c>
       <c r="I1" t="n">
-        <v>0.3867779752050871</v>
+        <v>0.8314293296250295</v>
       </c>
       <c r="J1" t="n">
-        <v>0.3431575230899223</v>
+        <v>0.8303220234163478</v>
       </c>
       <c r="K1" t="n">
-        <v>0.30535569564519127</v>
+        <v>0.8285765482515788</v>
       </c>
       <c r="L1" t="n">
-        <v>0.27203783159804223</v>
+        <v>0.8258337301835476</v>
       </c>
       <c r="M1" t="n">
-        <v>0.24235841960154153</v>
+        <v>0.8215448694857391</v>
       </c>
       <c r="N1" t="n">
-        <v>0.21588322858005501</v>
+        <v>0.8148898400580397</v>
       </c>
       <c r="O1" t="n">
-        <v>0.1923062162461198</v>
+        <v>0.8046852267318355</v>
       </c>
       <c r="P1" t="n">
-        <v>0.17132205480578447</v>
+        <v>0.789319004285892</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.15263981949362665</v>
+        <v>0.7667991936062746</v>
       </c>
       <c r="R1" t="n">
-        <v>0.13600285247167448</v>
+        <v>0.735067337767661</v>
       </c>
       <c r="S1" t="n">
-        <v>0.12118526221236332</v>
+        <v>0.6927268721944789</v>
       </c>
       <c r="T1" t="n">
-        <v>0.10798654153603716</v>
+        <v>0.6401073448526235</v>
       </c>
       <c r="U1" t="n">
-        <v>0.09622863738434688</v>
+        <v>0.5800636212506979</v>
       </c>
       <c r="V1" t="n">
-        <v>0.08575338759010778</v>
+        <v>0.5175746591564188</v>
       </c>
       <c r="W1" t="n">
-        <v>0.07642021908002182</v>
+        <v>0.45791061050457604</v>
       </c>
       <c r="X1" t="n">
-        <v>0.0972092600285685</v>
+        <v>0.4045612430224552</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.0866270656157904</v>
+        <v>0.35844980616010724</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.07719866523586426</v>
+        <v>0.3186783152081712</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>0.2838387405518087</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>0.2528866620939319</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>0.22527006395672441</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0.20066198861874956</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>0.17875932460426183</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0.15926196866738515</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>0.14190032561013713</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>0.12643800928087945</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>0.11266557514257453</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>0.10039701480426999</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>0.08946713322414913</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>0.07972913474610673</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.07105251044335109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.090891692775403</v>
+        <v>-31.836298951196337</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.9331693042430746</v>
+        <v>-25.290937976883793</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8152231912488861</v>
+        <v>-20.092411271719293</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7253618296408346</v>
+        <v>-15.96387793226011</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.6528135775477827</v>
+        <v>-12.685477706036929</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5889550900952163</v>
+        <v>-10.082622236790668</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5287584538701504</v>
+        <v>-8.01669681274874</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.47104272481230813</v>
+        <v>-6.377677068211383</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4170260675057098</v>
+        <v>-5.078266695048743</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.3682619612938852</v>
+        <v>-4.049242499636599</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.32536024559077226</v>
+        <v>-3.2357560661037263</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.28791084935933353</v>
+        <v>-2.5943897013917603</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.25508014917494337</v>
+        <v>-2.0908000799759976</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.22613344174481367</v>
+        <v>-1.6978072749447364</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.2005552855228553</v>
+        <v>-1.3938015553228364</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.17794691557998324</v>
+        <v>-1.1613519893437096</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.15795441531693796</v>
+        <v>-0.9859291582982909</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.14026266881383828</v>
+        <v>-0.8547406758645337</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.12459670893552095</v>
+        <v>-0.7558659806422886</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.11071641791162488</v>
+        <v>-0.6781003831011722</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.09841153789969755</v>
+        <v>-0.6118439419666565</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.08749775759735223</v>
+        <v>-0.5506255813170728</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.077813319926203</v>
+        <v>-0.49193692748393336</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.09943558053212467</v>
+        <v>-0.4363563114585499</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.0884062316776218</v>
+        <v>-0.38552594842446214</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.07861962697032966</v>
+        <v>-0.34047086573134017</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.3011050108178114</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.266672588793033</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.23636715375808037</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.20959980829299849</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.18594193362374375</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.16502593846320654</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.1465218024263959</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.1301402371148207</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.11562897371802253</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.10276725907098273</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.09136165687270353</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.0812424765403355</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.07226068190658343</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>520.6987464315688</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="B3" t="n">
-        <v>655.5208837720694</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="C3" t="n">
-        <v>825.2518985424289</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="D3" t="n">
-        <v>1038.9305862064455</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>1307.936116065505</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="F3" t="n">
-        <v>1646.5940135182295</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="G3" t="n">
-        <v>2072.9390465262477</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>2609.675642772265</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="I3" t="n">
-        <v>3285.3869832262812</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="J3" t="n">
-        <v>4136.057160761343</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="K3" t="n">
-        <v>5206.987464315687</v>
+        <v>151.285930408472</v>
       </c>
       <c r="L3" t="n">
-        <v>6555.208837720694</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="M3" t="n">
-        <v>8252.518985424289</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>10389.305862064455</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>13079.36116065505</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="P3" t="n">
-        <v>16465.940135182296</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="Q3" t="n">
-        <v>20729.390465262477</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>26096.756427722645</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="S3" t="n">
-        <v>32853.86983226281</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="T3" t="n">
-        <v>41360.57160761343</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>52069.87464315688</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="V3" t="n">
-        <v>65552.08837720694</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="W3" t="n">
-        <v>82525.18985424288</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="X3" t="n">
-        <v>51025.86368230384</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>64237.756448397406</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="Z3" t="n">
-        <v>80870.54398953212</v>
+        <v>4784.081180284991</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6022.801369947008</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7582.257694815012</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9545.496890774482</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12017.068603998207</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15128.593040847201</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>19045.770223814936</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>23977.204121953306</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>30185.51157290287</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>38001.307587134346</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>47840.811802849916</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>60228.01369947008</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -319,242 +436,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.8141861823748753</v>
+        <v>0.8333313572156805</v>
       </c>
       <c r="B1" t="n">
-        <v>0.7951018085527971</v>
+        <v>0.8333301848489779</v>
       </c>
       <c r="C1" t="n">
-        <v>0.7621308180565672</v>
+        <v>0.8333283017762376</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7119865751693542</v>
+        <v>0.8333252545877431</v>
       </c>
       <c r="E1" t="n">
-        <v>0.646072273927998</v>
+        <v>0.8333202678524092</v>
       </c>
       <c r="F1" t="n">
-        <v>0.5714891203296811</v>
+        <v>0.8333119704719634</v>
       </c>
       <c r="G1" t="n">
-        <v>0.4979402513330424</v>
+        <v>0.8332978348442143</v>
       </c>
       <c r="H1" t="n">
-        <v>0.43298858437077464</v>
+        <v>0.833272974016683</v>
       </c>
       <c r="I1" t="n">
-        <v>0.3795644347439965</v>
+        <v>0.8332274677013566</v>
       </c>
       <c r="J1" t="n">
-        <v>0.3365704963148903</v>
+        <v>0.8331402781258588</v>
       </c>
       <c r="K1" t="n">
-        <v>0.30094609263117267</v>
+        <v>0.8329652842309824</v>
       </c>
       <c r="L1" t="n">
-        <v>0.26970235531954606</v>
+        <v>0.8325994671195738</v>
       </c>
       <c r="M1" t="n">
-        <v>0.2411852306679103</v>
+        <v>0.8318124399957247</v>
       </c>
       <c r="N1" t="n">
-        <v>0.21511404497329575</v>
+        <v>0.8300990052461361</v>
       </c>
       <c r="O1" t="n">
-        <v>0.19168356135026138</v>
+        <v>0.8264011785174777</v>
       </c>
       <c r="P1" t="n">
-        <v>0.17084289006039882</v>
+        <v>0.8186775045257161</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.15229798725374405</v>
+        <v>0.8034836331929669</v>
       </c>
       <c r="R1" t="n">
-        <v>0.1357603572804802</v>
+        <v>0.7761533288789981</v>
       </c>
       <c r="S1" t="n">
-        <v>0.12101140710489869</v>
+        <v>0.7324726604016057</v>
       </c>
       <c r="T1" t="n">
-        <v>0.10786204305952594</v>
+        <v>0.671810276207563</v>
       </c>
       <c r="U1" t="n">
-        <v>0.09613963787854739</v>
+        <v>0.5993197690269723</v>
       </c>
       <c r="V1" t="n">
-        <v>0.0856898132997229</v>
+        <v>0.5243080807814722</v>
       </c>
       <c r="W1" t="n">
-        <v>0.07637484444565851</v>
+        <v>0.45559377688225283</v>
       </c>
       <c r="X1" t="n">
-        <v>0.09711759092557867</v>
+        <v>0.39788148218714725</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.08656157968771964</v>
+        <v>0.35135092794121064</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.07715192288258528</v>
+        <v>0.31340452067125435</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>0.2808269165984806</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>0.25139818862381735</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>0.22440707348509464</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0.19999136815032606</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>0.17822531273154174</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0.15887341600992397</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>0.1416256755032588</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>0.1262415677890442</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>0.11252475709563982</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>0.10029630914897657</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>0.08939517617524133</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>0.07967776157198617</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.07101586217522692</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.0766123525438351</v>
+        <v>-31.835003522077052</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.9268561002466408</v>
+        <v>-25.289307938611877</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8206270389490861</v>
+        <v>-20.09036079110387</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7434418178879558</v>
+        <v>-15.961299751567655</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.6802427189997781</v>
+        <v>-12.682238387481014</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.619315457901327</v>
+        <v>-10.078556954723666</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5557399472222221</v>
+        <v>-8.01160433231692</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.49096627116113156</v>
+        <v>-6.371316425461209</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.42930645762731073</v>
+        <v>-5.070358816859212</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.3745025326829529</v>
+        <v>-4.039483230188825</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.3280640113475906</v>
+        <v>-3.2238527143282543</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.289256179311925</v>
+        <v>-2.5801419940049706</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.25617650281753285</v>
+        <v>-2.0742568015139993</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.2271431496230827</v>
+        <v>-1.679532515393049</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.20134392190959474</v>
+        <v>-1.3752509010484002</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.17849379902315016</v>
+        <v>-1.145234347120136</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.15833292729274442</v>
+        <v>-0.9761792806750912</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.14053189795545507</v>
+        <v>-0.8555226363692182</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.12478837687046808</v>
+        <v>-0.7694362560184694</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.11085237348766183</v>
+        <v>-0.7027320310601389</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.0985079669344185</v>
+        <v>-0.6419388001478497</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.08756613489823363</v>
+        <v>-0.5794484309712282</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.07786179137102427</v>
+        <v>-0.5146778237770943</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.09953496820660486</v>
+        <v>-0.45135118962850723</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.08847670913665989</v>
+        <v>-0.39371665201004474</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.0786695882997407</v>
+        <v>-0.34418176974226067</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.3027575899256401</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.2678037583950442</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.23742276031330012</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.2104810453623055</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.18657110654725403</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.16545756344739107</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.14682657923170997</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.13035757814231413</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.11578325058460338</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.10287667810153095</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.09143925529520996</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.08129749004552805</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.07229967411868642</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>520.6987464315688</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="B3" t="n">
-        <v>655.5208837720694</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="C3" t="n">
-        <v>825.2518985424289</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="D3" t="n">
-        <v>1038.9305862064455</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>1307.936116065505</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="F3" t="n">
-        <v>1646.5940135182295</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="G3" t="n">
-        <v>2072.9390465262477</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>2609.675642772265</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="I3" t="n">
-        <v>3285.3869832262812</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="J3" t="n">
-        <v>4136.057160761343</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="K3" t="n">
-        <v>5206.987464315687</v>
+        <v>151.285930408472</v>
       </c>
       <c r="L3" t="n">
-        <v>6555.208837720694</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="M3" t="n">
-        <v>8252.518985424289</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>10389.305862064455</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>13079.36116065505</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="P3" t="n">
-        <v>16465.940135182296</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="Q3" t="n">
-        <v>20729.390465262477</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>26096.756427722645</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="S3" t="n">
-        <v>32853.86983226281</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="T3" t="n">
-        <v>41360.57160761343</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>52069.87464315688</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="V3" t="n">
-        <v>65552.08837720694</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="W3" t="n">
-        <v>82525.18985424288</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="X3" t="n">
-        <v>51025.86368230384</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>64237.756448397406</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="Z3" t="n">
-        <v>80870.54398953212</v>
+        <v>4784.081180284991</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6022.801369947008</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7582.257694815012</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9545.496890774482</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12017.068603998207</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15128.593040847201</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>19045.770223814936</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>23977.204121953306</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>30185.51157290287</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>38001.307587134346</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>47840.811802849916</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>60228.01369947008</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -572,242 +806,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.8569896388678502</v>
+        <v>0.8999901386602642</v>
       </c>
       <c r="B1" t="n">
-        <v>0.8221387780358725</v>
+        <v>0.8999843349518443</v>
       </c>
       <c r="C1" t="n">
-        <v>0.769783668820738</v>
+        <v>0.8999750825168583</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7015134494999292</v>
+        <v>0.8999602825067192</v>
       </c>
       <c r="E1" t="n">
-        <v>0.6242610349090596</v>
+        <v>0.8999364855195455</v>
       </c>
       <c r="F1" t="n">
-        <v>0.5473635804927932</v>
+        <v>0.8998979175303974</v>
       </c>
       <c r="G1" t="n">
-        <v>0.4784775259961555</v>
+        <v>0.8998346628768009</v>
       </c>
       <c r="H1" t="n">
-        <v>0.4211488821486807</v>
+        <v>0.899729113486082</v>
       </c>
       <c r="I1" t="n">
-        <v>0.37481732083393005</v>
+        <v>0.8995487158807338</v>
       </c>
       <c r="J1" t="n">
-        <v>0.3363906941051911</v>
+        <v>0.8992306271555194</v>
       </c>
       <c r="K1" t="n">
-        <v>0.3023576727297159</v>
+        <v>0.8986486276848052</v>
       </c>
       <c r="L1" t="n">
-        <v>0.2706668090995537</v>
+        <v>0.8975420295482858</v>
       </c>
       <c r="M1" t="n">
-        <v>0.24125713176678082</v>
+        <v>0.8953683073044958</v>
       </c>
       <c r="N1" t="n">
-        <v>0.21481865368336028</v>
+        <v>0.8910230588416715</v>
       </c>
       <c r="O1" t="n">
-        <v>0.19146739642267768</v>
+        <v>0.8823980694502886</v>
       </c>
       <c r="P1" t="n">
-        <v>0.17075140376038667</v>
+        <v>0.8659464093395198</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.15224610690347626</v>
+        <v>0.8369032079146214</v>
       </c>
       <c r="R1" t="n">
-        <v>0.13571901334444667</v>
+        <v>0.7911058922244627</v>
       </c>
       <c r="S1" t="n">
-        <v>0.12098160023767804</v>
+        <v>0.7281354167627246</v>
       </c>
       <c r="T1" t="n">
-        <v>0.10784134989138663</v>
+        <v>0.6531369545202172</v>
       </c>
       <c r="U1" t="n">
-        <v>0.09612506180760035</v>
+        <v>0.5750514482067735</v>
       </c>
       <c r="V1" t="n">
-        <v>0.08567954514050045</v>
+        <v>0.5025648788905062</v>
       </c>
       <c r="W1" t="n">
-        <v>0.07636760914539403</v>
+        <v>0.44085550154907316</v>
       </c>
       <c r="X1" t="n">
-        <v>0.09710255982919729</v>
+        <v>0.3907473155753448</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.08655099002351462</v>
+        <v>0.3498455641190991</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.07714446151978047</v>
+        <v>0.31454334115305776</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>0.2820914720703253</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>0.251763418830468</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>0.2241738060881842</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0.19972277700183544</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>0.17809798511740718</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0.15881397511070497</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>0.14158059737425752</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>0.12620754660056527</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>0.1125011411130146</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>0.10027973467179789</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>0.0893834946121426</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>0.07966953249763224</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.07101006144663662</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.1282557358210037</v>
+        <v>-31.83646008991083</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.9846000733018022</v>
+        <v>-25.291141990288725</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8778503752354653</v>
+        <v>-20.09267040531871</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7914007771122683</v>
+        <v>-15.964208736284837</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.7124388810483396</v>
+        <v>-12.685903268633457</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6347766876597456</v>
+        <v>-10.083176087005894</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5584620462498242</v>
+        <v>-8.01742996553669</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.48691425096142604</v>
+        <v>-6.378671001008464</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.42373745574564836</v>
+        <v>-5.0796574289182335</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.3706457888865853</v>
+        <v>-4.051264986256161</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.3268158779393491</v>
+        <v>-3.238823987437194</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.2897031364963564</v>
+        <v>-2.5992315639351378</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.2569275027259695</v>
+        <v>-2.0986683493739786</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.2275264339308929</v>
+        <v>-1.7107341717831643</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.201447088671447</v>
+        <v>-1.4147364521019656</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.1785420324691458</v>
+        <v>-1.1937534179005118</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.15838531614440915</v>
+        <v>-1.0322446189594325</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.14057279339523904</v>
+        <v>-0.9139204066666158</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.12481608069669904</v>
+        <v>-0.821780781232343</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.11087192725208347</v>
+        <v>-0.7411624971560573</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.0985218547226292</v>
+        <v>-0.6633012992248508</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.08757596459871375</v>
+        <v>-0.5861970762900497</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.07786875167157847</v>
+        <v>-0.5124269221898239</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.0995492842445911</v>
+        <v>-0.4458425577854331</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.08848684197558644</v>
+        <v>-0.3890042356248856</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.07867676319662475</v>
+        <v>-0.3420063030160289</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.30275147187279033</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.2685732719656872</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.23795917905908426</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.21065587893746793</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.18662368815432026</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.1655096021175041</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.14687298126927134</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.13038946719226746</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.11580540446156586</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.10289244281062124</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.09145041691381481</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.08130539281589527</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.07230526974994979</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>520.6987464315688</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="B3" t="n">
-        <v>655.5208837720694</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="C3" t="n">
-        <v>825.2518985424289</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="D3" t="n">
-        <v>1038.9305862064455</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>1307.936116065505</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="F3" t="n">
-        <v>1646.5940135182295</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="G3" t="n">
-        <v>2072.9390465262477</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>2609.675642772265</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="I3" t="n">
-        <v>3285.3869832262812</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="J3" t="n">
-        <v>4136.057160761343</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="K3" t="n">
-        <v>5206.987464315687</v>
+        <v>151.285930408472</v>
       </c>
       <c r="L3" t="n">
-        <v>6555.208837720694</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="M3" t="n">
-        <v>8252.518985424289</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>10389.305862064455</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>13079.36116065505</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="P3" t="n">
-        <v>16465.940135182296</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="Q3" t="n">
-        <v>20729.390465262477</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>26096.756427722645</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="S3" t="n">
-        <v>32853.86983226281</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="T3" t="n">
-        <v>41360.57160761343</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>52069.87464315688</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="V3" t="n">
-        <v>65552.08837720694</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="W3" t="n">
-        <v>82525.18985424288</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="X3" t="n">
-        <v>51025.86368230384</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>64237.756448397406</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="Z3" t="n">
-        <v>80870.54398953212</v>
+        <v>4784.081180284991</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6022.801369947008</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7582.257694815012</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9545.496890774482</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12017.068603998207</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15128.593040847201</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>19045.770223814936</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>23977.204121953306</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>30185.51157290287</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>38001.307587134346</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>47840.811802849916</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>60228.01369947008</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -825,242 +1176,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.7798685476128127</v>
+        <v>0.8332956720223899</v>
       </c>
       <c r="B1" t="n">
-        <v>0.7507144508916725</v>
+        <v>0.8332736263142329</v>
       </c>
       <c r="C1" t="n">
-        <v>0.7116393966924999</v>
+        <v>0.8332386592812487</v>
       </c>
       <c r="D1" t="n">
-        <v>0.6633250498405631</v>
+        <v>0.8331831727996133</v>
       </c>
       <c r="E1" t="n">
-        <v>0.6079022888528347</v>
+        <v>0.8330950639782906</v>
       </c>
       <c r="F1" t="n">
-        <v>0.5488265114124542</v>
+        <v>0.8329550003884528</v>
       </c>
       <c r="G1" t="n">
-        <v>0.49036921486564694</v>
+        <v>0.8327319707998518</v>
       </c>
       <c r="H1" t="n">
-        <v>0.4362721742275695</v>
+        <v>0.8323759202592871</v>
       </c>
       <c r="I1" t="n">
-        <v>0.3883171458896851</v>
+        <v>0.8318053493101352</v>
       </c>
       <c r="J1" t="n">
-        <v>0.3460858228047663</v>
+        <v>0.8308860544091272</v>
       </c>
       <c r="K1" t="n">
-        <v>0.3081832960203531</v>
+        <v>0.8293942241891885</v>
       </c>
       <c r="L1" t="n">
-        <v>0.2738010437161236</v>
+        <v>0.8269527812850761</v>
       </c>
       <c r="M1" t="n">
-        <v>0.24305498073595677</v>
+        <v>0.822926844550557</v>
       </c>
       <c r="N1" t="n">
-        <v>0.21607267363820487</v>
+        <v>0.8162747706145745</v>
       </c>
       <c r="O1" t="n">
-        <v>0.19241549619153278</v>
+        <v>0.8054060996263582</v>
       </c>
       <c r="P1" t="n">
-        <v>0.17143788875745916</v>
+        <v>0.788220981571131</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.1527246779696317</v>
+        <v>0.7625805969790721</v>
       </c>
       <c r="R1" t="n">
-        <v>0.13605330340529204</v>
+        <v>0.7271576531675573</v>
       </c>
       <c r="S1" t="n">
-        <v>0.12121678908560082</v>
+        <v>0.6820683366362951</v>
       </c>
       <c r="T1" t="n">
-        <v>0.10800687133601565</v>
+        <v>0.6289256560964881</v>
       </c>
       <c r="U1" t="n">
-        <v>0.09624158102509696</v>
+        <v>0.570719532191913</v>
       </c>
       <c r="V1" t="n">
-        <v>0.08576162319608645</v>
+        <v>0.5115351221246115</v>
       </c>
       <c r="W1" t="n">
-        <v>0.07642545629928317</v>
+        <v>0.4555010920920189</v>
       </c>
       <c r="X1" t="n">
-        <v>0.09722272962603237</v>
+        <v>0.40523234396790037</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.08663563530618712</v>
+        <v>0.3610438795624861</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.07720411542228948</v>
+        <v>0.32169929672528985</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>0.2860448231902926</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>0.2539236075204831</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>0.22557812881969413</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0.20077525472620883</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>0.17887626287241873</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0.15936119546828287</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>0.14196157169897683</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>0.1264751502466569</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>0.11268950446807932</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>0.10041230516480816</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>0.0894768586167529</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>0.07973532172237965</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.07105644254576213</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.0979079993519067</v>
+        <v>-31.83629957006484</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.9403882497947151</v>
+        <v>-25.290939210837077</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8204874727441311</v>
+        <v>-20.092413731089074</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7267724103608963</v>
+        <v>-15.96388283085253</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.649850253918014</v>
+        <v>-12.685487453215467</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5826254348683128</v>
+        <v>-10.082641600557615</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5208644880044544</v>
+        <v>-8.016735183270628</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4633876355786692</v>
+        <v>-6.377752796847601</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4110174746892685</v>
+        <v>-5.078415207684027</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.3646881799094448</v>
+        <v>-4.049530844366356</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.32411286214167423</v>
+        <v>-3.2363071353629795</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.2880307757579297</v>
+        <v>-2.5954171480982873</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.2554705814114437</v>
+        <v>-2.0926434289382825</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.2262850977816187</v>
+        <v>-1.7009247214439585</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.20052790166624374</v>
+        <v>-1.3986248786387332</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.17790842891017605</v>
+        <v>-1.1679009214970517</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.15794421621898616</v>
+        <v>-0.9932961892599056</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1402598768449757</v>
+        <v>-0.8609884470870021</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.12459417579937662</v>
+        <v>-0.758843459286538</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.11071487865610184</v>
+        <v>-0.6766998877506052</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.0984106780007088</v>
+        <v>-0.6065649897281535</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.08749725739452693</v>
+        <v>-0.5430847158907527</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.07781303171467706</v>
+        <v>-0.4840046767675485</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.0994346782491814</v>
+        <v>-0.4296118051000999</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.08840570680740571</v>
+        <v>-0.38101618456446606</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.07861932441007799</v>
+        <v>-0.3384431877654681</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.30086281890337724</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.26706216001756383</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.23662084863462074</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.2096150694428894</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.18589577269263932</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.16500726397207893</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.14651817173224652</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.13013754274301367</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.1156270578926774</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.10276620389942172</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.09136104565265474</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.08124212339912325</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.07226047869345785</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>520.6987464315688</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="B3" t="n">
-        <v>655.5208837720694</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="C3" t="n">
-        <v>825.2518985424289</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="D3" t="n">
-        <v>1038.9305862064455</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>1307.936116065505</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="F3" t="n">
-        <v>1646.5940135182295</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="G3" t="n">
-        <v>2072.9390465262477</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>2609.675642772265</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="I3" t="n">
-        <v>3285.3869832262812</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="J3" t="n">
-        <v>4136.057160761343</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="K3" t="n">
-        <v>5206.987464315687</v>
+        <v>151.285930408472</v>
       </c>
       <c r="L3" t="n">
-        <v>6555.208837720694</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="M3" t="n">
-        <v>8252.518985424289</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>10389.305862064455</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>13079.36116065505</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="P3" t="n">
-        <v>16465.940135182296</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="Q3" t="n">
-        <v>20729.390465262477</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>26096.756427722645</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="S3" t="n">
-        <v>32853.86983226281</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="T3" t="n">
-        <v>41360.57160761343</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>52069.87464315688</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="V3" t="n">
-        <v>65552.08837720694</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="W3" t="n">
-        <v>82525.18985424288</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="X3" t="n">
-        <v>51025.86368230384</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>64237.756448397406</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="Z3" t="n">
-        <v>80870.54398953212</v>
+        <v>4784.081180284991</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6022.801369947008</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7582.257694815012</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9545.496890774482</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12017.068603998207</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15128.593040847201</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>19045.770223814936</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>23977.204121953306</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>30185.51157290287</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>38001.307587134346</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>47840.811802849916</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>60228.01369947008</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
